--- a/Database.xlsx
+++ b/Database.xlsx
@@ -360,7 +360,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -425,7 +425,7 @@
         <v>154.25</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="F2" s="7" t="n">
         <v>20</v>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -451,7 +451,7 @@
         <v>194.17</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F3" s="7" t="n">
         <v>20</v>
@@ -477,7 +477,7 @@
         <v>142.79</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F4" s="7" t="n">
         <v>10</v>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -360,10 +360,10 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="13.44" customWidth="1" style="4" min="1" max="1"/>
     <col width="16.33" customWidth="1" style="4" min="2" max="2"/>
@@ -425,7 +425,7 @@
         <v>154.25</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F2" s="7" t="n">
         <v>20</v>
@@ -451,7 +451,7 @@
         <v>194.17</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F3" s="7" t="n">
         <v>20</v>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -363,7 +363,7 @@
       <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="13.44" customWidth="1" style="4" min="1" max="1"/>
     <col width="16.33" customWidth="1" style="4" min="2" max="2"/>
@@ -425,7 +425,7 @@
         <v>154.25</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F2" s="7" t="n">
         <v>20</v>
@@ -451,7 +451,7 @@
         <v>194.17</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F3" s="7" t="n">
         <v>20</v>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -363,7 +363,7 @@
       <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="13.44" customWidth="1" style="4" min="1" max="1"/>
     <col width="16.33" customWidth="1" style="4" min="2" max="2"/>
@@ -425,7 +425,7 @@
         <v>154.25</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F2" s="7" t="n">
         <v>20</v>
@@ -451,7 +451,7 @@
         <v>194.17</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F3" s="7" t="n">
         <v>20</v>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -360,10 +360,10 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="13.44" customWidth="1" style="4" min="1" max="1"/>
     <col width="16.33" customWidth="1" style="4" min="2" max="2"/>
@@ -424,8 +424,10 @@
       <c r="D2" s="4" t="n">
         <v>154.25</v>
       </c>
-      <c r="E2" s="7" t="n">
-        <v>88</v>
+      <c r="E2" s="7" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
       <c r="F2" s="7" t="n">
         <v>20</v>
@@ -450,8 +452,10 @@
       <c r="D3" s="4" t="n">
         <v>194.17</v>
       </c>
-      <c r="E3" s="7" t="n">
-        <v>71</v>
+      <c r="E3" s="7" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
       <c r="F3" s="7" t="n">
         <v>20</v>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -424,10 +424,8 @@
       <c r="D2" s="4" t="n">
         <v>154.25</v>
       </c>
-      <c r="E2" s="7" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+      <c r="E2" s="7" t="n">
+        <v>22</v>
       </c>
       <c r="F2" s="7" t="n">
         <v>20</v>
@@ -507,7 +505,7 @@
         <v>131.5</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F5" s="7" t="n">
         <v>10</v>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -363,7 +363,7 @@
       <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="13.44" customWidth="1" style="4" min="1" max="1"/>
     <col width="16.33" customWidth="1" style="4" min="2" max="2"/>
@@ -425,7 +425,7 @@
         <v>154.25</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="F2" s="7" t="n">
         <v>20</v>
@@ -531,7 +531,7 @@
         <v>105.75</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F6" s="7" t="n">
         <v>15</v>
@@ -609,7 +609,7 @@
         <v>163.73</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" s="7" t="n">
         <v>20</v>
@@ -635,7 +635,7 @@
         <v>92</v>
       </c>
       <c r="E10" s="7" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F10" s="7" t="n">
         <v>5</v>
@@ -661,7 +661,7 @@
         <v>119.45</v>
       </c>
       <c r="E11" s="7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" s="7" t="n">
         <v>5</v>
@@ -687,7 +687,7 @@
         <v>90.8</v>
       </c>
       <c r="E12" s="7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" s="7" t="n">
         <v>10</v>
@@ -713,7 +713,7 @@
         <v>120.9</v>
       </c>
       <c r="E13" s="7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" s="7" t="n">
         <v>10</v>
@@ -739,7 +739,7 @@
         <v>88.5</v>
       </c>
       <c r="E14" s="7" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="7" t="n">
         <v>10</v>
@@ -765,7 +765,7 @@
         <v>174</v>
       </c>
       <c r="E15" s="7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" s="7" t="n">
         <v>25</v>
@@ -791,7 +791,7 @@
         <v>169.67</v>
       </c>
       <c r="E16" s="7" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F16" s="7" t="n">
         <v>15</v>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -425,7 +425,7 @@
         <v>154.25</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F2" s="7" t="n">
         <v>20</v>
@@ -791,7 +791,7 @@
         <v>169.67</v>
       </c>
       <c r="E16" s="7" t="n">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="F16" s="7" t="n">
         <v>15</v>
